--- a/ohieFeatures.xlsx
+++ b/ohieFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\BAna-DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79171841-5D8E-4DBB-8D7A-7582B311465C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FADB250-1FF5-4EB4-8A28-DEFFEC442604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{BAFDFC07-DD2A-4F71-B1B1-0ED16FDDF277}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>charge_total</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Amount of dollar value TANF assistance recieved</t>
+  </si>
+  <si>
+    <t>19 (March 10, 2008 to September 30, 200)</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -609,6 +612,9 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
